--- a/version2/Model results.xlsx
+++ b/version2/Model results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259950C-BDBB-47F7-B2CB-CAE7F2334D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE13B435-BEE3-4300-9BFA-E91FBE7075D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Dataset Used</t>
   </si>
@@ -66,24 +66,6 @@
     <t>mb_acc</t>
   </si>
   <si>
-    <t>{'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 4, 'p': 1, 'weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'n_neighbors': 2, 'p': 1, 'weights': 'distance'}</t>
-  </si>
-  <si>
-    <t>{'max_leaf_nodes': 15, 'min_samples_split': 15}</t>
-  </si>
-  <si>
-    <t>{'max_leaf_nodes': 65, 'min_samples_split': 5}</t>
-  </si>
-  <si>
-    <t>{'max_leaf_nodes': 75, 'min_samples_split': 5}</t>
-  </si>
-  <si>
     <t>max_f1</t>
   </si>
   <si>
@@ -102,34 +84,49 @@
     <t>u=960, 448, lr=0.01, d=0.0, 0.15</t>
   </si>
   <si>
-    <t>96, 96, lr=0.001, d=0.3, 0.1</t>
-  </si>
-  <si>
-    <t>{'C': 10, 'degree': 1, 'gamma': 0.1, 'kernel': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'C': 100, 'degree': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>SVM</t>
   </si>
   <si>
-    <t>{'max_depth': 25, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 100}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 15, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 300}</t>
-  </si>
-  <si>
     <t>Classifier</t>
   </si>
   <si>
     <t>No Oversampling</t>
+  </si>
+  <si>
+    <t>{'max_leaf_nodes': 25, 'min_samples_split': 50}</t>
+  </si>
+  <si>
+    <t>{'max_leaf_nodes': 25, 'min_samples_split': 40}</t>
+  </si>
+  <si>
+    <t>{'max_leaf_nodes': 55, 'min_samples_split': 15}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 21, 'p': 1, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 12, 'p': 2, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 29, 'p': 1, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.1, 'degree': 3, 'gamma': 1, 'kernel': 'poly'}</t>
+  </si>
+  <si>
+    <t>{'C': 1000, 'degree': 5, 'gamma': 0.1, 'kernel': 'poly'}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 5, 'min_samples_leaf': 2, 'min_samples_split': 2, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 15, 'n_estimators': 300}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 30, 'min_samples_leaf': 1, 'min_samples_split': 2, 'n_estimators': 800}</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -334,9 +331,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,7 +382,14 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,7 +422,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +430,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDEC8EE"/>
       <color rgb="FFEFE5F7"/>
-      <color rgb="FFDEC8EE"/>
       <color rgb="FFCEAEE6"/>
       <color rgb="FFC39BE1"/>
       <color rgb="FFB381D9"/>
@@ -639,16 +639,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72834817064655699</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73616950000993098</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71545530309755501</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76141982484693405</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.72130544106591998</c:v>
@@ -1001,16 +1001,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.72802308802308702</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76141982484693405</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74044574351479697</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74568926384783096</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,6 +1191,1218 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weighted F1-Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34838188976377954"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>No Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763988216255866E-2"/>
+                  <c:y val="-4.9317100324151777E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.907389003426605E-2"/>
+                  <c:y val="4.6731616648554707E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1800853338459457E-3"/>
+                  <c:y val="-9.3784175611352372E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72130544106591998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E2A-4308-95CB-3C7D64489B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SMOTE Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8052360841005656E-2"/>
+                  <c:y val="3.2903489195114557E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DB42-499E-BD75-4B3BD5312097}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3014216966911371E-2"/>
+                  <c:y val="3.6484929342651476E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2690090387362559E-2"/>
+                  <c:y val="-3.7220680970571011E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5143228439302447E-3"/>
+                  <c:y val="4.324438859971488E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70129870129870098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8E2A-4308-95CB-3C7D64489B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Borderline-SMOTE Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5302589591661134E-2"/>
+                  <c:y val="4.6051771101180611E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DB42-499E-BD75-4B3BD5312097}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.9298929581173081E-2"/>
+                  <c:y val="-2.1585958877281667E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DB42-499E-BD75-4B3BD5312097}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5302589591661134E-2"/>
+                  <c:y val="3.2903489195114634E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DB42-499E-BD75-4B3BD5312097}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2650034664439132E-2"/>
+                  <c:y val="-4.3084607641118836E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4582239720036013E-3"/>
+                  <c:y val="-6.9098133566637505E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65297950763356405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8E2A-4308-95CB-3C7D64489B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ADASYN Oversampling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8541776027996503E-2"/>
+                  <c:y val="7.179389034703991E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763998250218721E-2"/>
+                  <c:y val="-3.4687591134441531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5763998250218825E-2"/>
+                  <c:y val="7.1793890347039951E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8124890638670066E-2"/>
+                  <c:y val="-3.931722076407116E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7915573053368333E-3"/>
+                  <c:y val="-2.2801837270340782E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-8E2A-4308-95CB-3C7D64489B0C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-8E2A-4308-95CB-3C7D64489B0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1312239840"/>
+        <c:axId val="1312234432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1312239840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312234432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1312234432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312239840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -1268,6 +2480,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
@@ -2353,20 +3605,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>162983</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>194733</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>397933</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175683</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2393,16 +4148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>755649</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>35982</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1953682</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>48682</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374649</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2422,6 +4177,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182034</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0598A3D2-9425-4E93-B416-B4621204D65C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2729,166 +4522,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54676BF1-EF85-4E50-8388-7178238CD503}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="8.46875" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.64453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.29296875" customWidth="1"/>
-    <col min="6" max="6" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.29296875" customWidth="1"/>
-    <col min="9" max="9" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.9375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1171875" customWidth="1"/>
+    <col min="6" max="6" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.9375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.9375" customWidth="1"/>
+    <col min="9" max="9" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.9375" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.17578125" customWidth="1"/>
-    <col min="12" max="12" width="6.3515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.9375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.9375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.703125" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>17</v>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="38"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="36"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.72834817064655699</v>
-      </c>
-      <c r="D4" s="23">
+        <v>20</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.72</v>
+      </c>
+      <c r="D4" s="22">
         <v>0.52788158648810601</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0.72473935017913305</v>
-      </c>
-      <c r="G4" s="23">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="22">
         <v>0.77317108113250099</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0.718955466378146</v>
-      </c>
-      <c r="J4" s="23">
+        <v>22</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="J4" s="22">
         <v>0.76393012940123906</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0.71960545122587605</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0.74878759319997801</v>
-      </c>
-      <c r="N4" s="14">
+      <c r="K4" s="7"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="13">
         <f>MAX(C4,F4,I4,L4)</f>
-        <v>0.72834817064655699</v>
-      </c>
-      <c r="O4" s="23">
+        <v>0.72</v>
+      </c>
+      <c r="O4" s="22">
         <f>MAX(D4,G4,J4,M4)</f>
         <v>0.77317108113250099</v>
       </c>
@@ -2898,95 +4685,83 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.73616950000993098</v>
-      </c>
-      <c r="D5" s="24">
+        <v>23</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="D5" s="23">
         <v>0.52624914090478903</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.69757528748266495</v>
-      </c>
-      <c r="G5" s="24">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="G5" s="23">
         <v>0.85281994703183595</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0.70672134882661197</v>
-      </c>
-      <c r="J5" s="26">
+      <c r="H5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="25">
         <v>0.85252659960056398</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0.70962389781125201</v>
-      </c>
-      <c r="M5" s="24">
-        <v>0.84595063358244704</v>
-      </c>
-      <c r="N5" s="15">
+      <c r="K5" s="9"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="14">
         <f t="shared" ref="N5:N8" si="0">MAX(C5,F5,I5,L5)</f>
-        <v>0.73616950000993098</v>
-      </c>
-      <c r="O5" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="O5" s="23">
         <f t="shared" ref="O5:O8" si="1">MAX(D5,G5,J5,M5)</f>
         <v>0.85281994703183595</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="43" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="17">
-        <v>0.71545530309755501</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C6" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="D6" s="23">
         <v>0.52853606882422999</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0.68509144005261302</v>
-      </c>
-      <c r="G6" s="24">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="G6" s="23">
         <v>0.83573553630159803</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0.69241642508895596</v>
-      </c>
-      <c r="J6" s="24">
+        <v>27</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="J6" s="23">
         <v>0.84548251908156102</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0.68962435414048295</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0.83994293845344803</v>
-      </c>
-      <c r="N6" s="16">
+      <c r="K6" s="5"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="15">
         <f t="shared" si="0"/>
-        <v>0.71545530309755501</v>
-      </c>
-      <c r="O6" s="24">
+        <v>0.69</v>
+      </c>
+      <c r="O6" s="23">
         <f t="shared" si="1"/>
         <v>0.84548251908156102</v>
       </c>
@@ -2996,46 +4771,40 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.72802308802308702</v>
-      </c>
-      <c r="D7" s="24">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="D7" s="23">
         <v>0.8</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0.76141982484693405</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="E7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="G7" s="24">
         <v>0.79</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0.74044574351479697</v>
-      </c>
-      <c r="J7" s="24">
+      <c r="H7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="31">
+        <v>0.74</v>
+      </c>
+      <c r="J7" s="23">
         <v>0.79</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0.74568926384783096</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0.79</v>
-      </c>
-      <c r="N7" s="15">
+      <c r="K7" s="9"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="14">
         <f>MAX(C7,F7,I7,L7)</f>
-        <v>0.76141982484693405</v>
-      </c>
-      <c r="O7" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="O7" s="23">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -3045,122 +4814,120 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="17">
+        <v>14</v>
+      </c>
+      <c r="C8" s="16">
         <v>0.72130544106591998</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>25</v>
+      <c r="D8" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="16">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15">
         <v>0.70129870129870098</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>25</v>
+      <c r="G8" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="16">
+        <v>15</v>
+      </c>
+      <c r="I8" s="15">
         <v>0.65297950763356405</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0.71236805824076199</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="J8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="15">
         <f t="shared" si="0"/>
         <v>0.72130544106591998</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="N9" s="30">
+      <c r="N9" s="32">
         <f>MAX(N4:N8)</f>
-        <v>0.76141982484693405</v>
-      </c>
-      <c r="O9" s="29">
+        <v>0.74</v>
+      </c>
+      <c r="O9" s="28">
         <f>MAX(O4:O8)</f>
         <v>0.85281994703183595</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>0.72802308802308702</v>
+      <c r="P12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="14">
+        <f>C7</f>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P13" s="41" t="s">
+      <c r="P13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="20">
-        <v>0.76141982484693405</v>
+      <c r="Q13" s="14">
+        <f>F7</f>
+        <v>0.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="15">
-        <v>0.74044574351479697</v>
+      <c r="Q14" s="19">
+        <f>I7</f>
+        <v>0.74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="15">
-        <v>0.74568926384783096</v>
+      <c r="Q15" s="14">
+        <f>L7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J20" s="21"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J21" s="21"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J22" s="21"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J23" s="21"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J24" s="21"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J25" s="21"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J26" s="21"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J27" s="21"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="1"/>
     </row>
   </sheetData>

--- a/version2/Model results.xlsx
+++ b/version2/Model results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehna\Desktop\EV-Customer-Discontinuation\version2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE13B435-BEE3-4300-9BFA-E91FBE7075D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CB96F1-CB02-46C3-BEB1-38400C8BD77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{86415F1D-A31A-4F4B-9E3D-42390BA86BE7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Dataset Used</t>
   </si>
@@ -57,19 +57,10 @@
     <t>SMOTE Oversampling</t>
   </si>
   <si>
-    <t>ADASYN Oversampling</t>
-  </si>
-  <si>
     <t>mw_f1</t>
   </si>
   <si>
-    <t>mb_acc</t>
-  </si>
-  <si>
     <t>max_f1</t>
-  </si>
-  <si>
-    <t>max_acc</t>
   </si>
   <si>
     <t>best parameters</t>
@@ -82,9 +73,6 @@
   </si>
   <si>
     <t>u=960, 448, lr=0.01, d=0.0, 0.15</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>SVM</t>
@@ -156,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEC8EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,11 +280,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,32 +334,11 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,15 +357,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,7 +583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$8</c:f>
+              <c:f>Sheet1!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -976,9 +925,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$12:$P$15</c:f>
+              <c:f>Sheet1!$K$12:$K$14</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>No Oversampling</c:v>
                 </c:pt>
@@ -987,19 +936,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Borderline-SMOTE Oversampling</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ADASYN Oversampling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$12:$Q$15</c:f>
+              <c:f>Sheet1!$L$12:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.71</c:v>
                 </c:pt>
@@ -1008,9 +954,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,8 +1504,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.2690090387362559E-2"/>
-                  <c:y val="-3.7220680970571011E-2"/>
+                  <c:x val="-4.2552818342316744E-2"/>
+                  <c:y val="-2.8455159699860268E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1682,7 +1625,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1933,7 +1876,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:f>Sheet1!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1959,243 +1902,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-8E2A-4308-95CB-3C7D64489B0C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>ADASYN Oversampling</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.8541776027996503E-2"/>
-                  <c:y val="7.179389034703991E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-8E2A-4308-95CB-3C7D64489B0C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.5763998250218721E-2"/>
-                  <c:y val="-3.4687591134441531E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-8E2A-4308-95CB-3C7D64489B0C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.5763998250218825E-2"/>
-                  <c:y val="7.1793890347039951E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-8E2A-4308-95CB-3C7D64489B0C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.8124890638670066E-2"/>
-                  <c:y val="-3.931722076407116E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-8E2A-4308-95CB-3C7D64489B0C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.7915573053368333E-3"/>
-                  <c:y val="-2.2801837270340782E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-8E2A-4308-95CB-3C7D64489B0C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>DT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>KNN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RF</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ANN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$4:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-8E2A-4308-95CB-3C7D64489B0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4118,7 +3824,7 @@
       <xdr:rowOff>150283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>444499</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>162983</xdr:rowOff>
@@ -4148,16 +3854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99482</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374649</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2116</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4184,16 +3890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>182034</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>232833</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>179916</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4520,426 +4226,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54676BF1-EF85-4E50-8388-7178238CD503}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.46875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.64453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1171875" customWidth="1"/>
-    <col min="6" max="6" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.9375" customWidth="1"/>
-    <col min="9" max="9" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.9375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.17578125" customWidth="1"/>
-    <col min="12" max="12" width="6.3515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.9375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.64453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1171875" customWidth="1"/>
+    <col min="5" max="5" width="6.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.9375" customWidth="1"/>
+    <col min="7" max="7" width="10.3515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="6.703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.64453125" customWidth="1"/>
+    <col min="11" max="11" width="30.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="29"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="43" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="33" t="s">
+      <c r="G4" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="H4" s="12">
+        <f>MAX(C4,E4,G4)</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="12">
+        <f>MAX(C5,E5,G5)</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="43" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="12">
+        <f>MAX(C6,E6,G6)</f>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="H7" s="12">
+        <f>MAX(C7,E7,G7)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.72130544106591998</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>11</v>
+      <c r="E8" s="14">
+        <v>0.70129870129870098</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.65297950763356405</v>
+      </c>
+      <c r="H8" s="12">
+        <f>MAX(C8,E8,G8)</f>
+        <v>0.72130544106591998</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="37"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="H9" s="24">
+        <f>MAX(H4:H8)</f>
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="40"/>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" ht="43" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.72</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.52788158648810601</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.77317108113250099</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.65</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0.76393012940123906</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="13">
-        <f>MAX(C4,F4,I4,L4)</f>
-        <v>0.72</v>
-      </c>
-      <c r="O4" s="22">
-        <f>MAX(D4,G4,J4,M4)</f>
-        <v>0.77317108113250099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.71</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.52624914090478903</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.68</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.85281994703183595</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0.7</v>
-      </c>
-      <c r="J5" s="25">
-        <v>0.85252659960056398</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="14">
-        <f t="shared" ref="N5:N8" si="0">MAX(C5,F5,I5,L5)</f>
-        <v>0.71</v>
-      </c>
-      <c r="O5" s="23">
-        <f t="shared" ref="O5:O8" si="1">MAX(D5,G5,J5,M5)</f>
-        <v>0.85281994703183595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="43" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.69</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.52853606882422999</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.83573553630159803</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="J6" s="23">
-        <v>0.84548251908156102</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.69</v>
-      </c>
-      <c r="O6" s="23">
-        <f t="shared" si="1"/>
-        <v>0.84548251908156102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="57.35" x14ac:dyDescent="0.5">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.71</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0.72</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0.79</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="31">
-        <v>0.74</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0.79</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="14">
-        <f>MAX(C7,F7,I7,L7)</f>
-        <v>0.74</v>
-      </c>
-      <c r="O7" s="23">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.72130544106591998</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.70129870129870098</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="K12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="15">
-        <v>0.65297950763356405</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.72130544106591998</v>
-      </c>
-      <c r="O8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="N9" s="32">
-        <f>MAX(N4:N8)</f>
-        <v>0.74</v>
-      </c>
-      <c r="O9" s="28">
-        <f>MAX(O4:O8)</f>
-        <v>0.85281994703183595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="14">
+      <c r="L12" s="13">
         <f>C7</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P13" s="29" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="K13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="14">
-        <f>F7</f>
+      <c r="L13" s="13">
+        <f>E7</f>
         <v>0.72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P14" s="29" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="K14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="19">
-        <f>I7</f>
+      <c r="L14" s="18">
+        <f>G7</f>
         <v>0.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="P15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="14">
-        <f>L7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J20" s="20"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J21" s="20"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J22" s="20"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J23" s="20"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J24" s="20"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J25" s="20"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J26" s="20"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.5">
-      <c r="J27" s="20"/>
-      <c r="K27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
+  <mergeCells count="6">
+    <mergeCell ref="H1:H3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
